--- a/campos bd_nueva.xlsx
+++ b/campos bd_nueva.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\Programa\godsito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEE71E0-5C25-40E3-86F6-19084325E5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328B40AF-AE77-4FE5-A1A4-DA7CEE78F453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{6185D204-A7B5-42E5-B6C4-5CA857934285}"/>
+    <workbookView xWindow="0" yWindow="610" windowWidth="10800" windowHeight="8600" xr2:uid="{6185D204-A7B5-42E5-B6C4-5CA857934285}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="287">
   <si>
     <t>COD_BENEF</t>
   </si>
@@ -702,18 +702,9 @@
     <t>APELLIDO_MATERNO</t>
   </si>
   <si>
-    <t>DV</t>
-  </si>
-  <si>
-    <t>SEXO</t>
-  </si>
-  <si>
     <t>FECHA_NACIMIENTO</t>
   </si>
   <si>
-    <t>EDAD</t>
-  </si>
-  <si>
     <t>DIRECCIÓN</t>
   </si>
   <si>
@@ -723,9 +714,6 @@
     <t>TELÉFONO</t>
   </si>
   <si>
-    <t>NUM_CTA_AHORRO</t>
-  </si>
-  <si>
     <t>datos sociales</t>
   </si>
   <si>
@@ -864,9 +852,6 @@
     <t>COMUNA_CONSTRUCTORA</t>
   </si>
   <si>
-    <t>COD_CONSTRUCCION</t>
-  </si>
-  <si>
     <t>FV_CEDULA</t>
   </si>
   <si>
@@ -879,117 +864,15 @@
     <t>SERIE_VIGENTE</t>
   </si>
   <si>
-    <t>COD_CONTACTO</t>
-  </si>
-  <si>
-    <t>COD_PRESIDENTE</t>
-  </si>
-  <si>
-    <t>COD_SECRETARIO</t>
-  </si>
-  <si>
-    <t>COD_TESORERO</t>
-  </si>
-  <si>
     <t>FECHA_CONTRATO</t>
   </si>
   <si>
     <t>SUELDO_ACORDADO</t>
   </si>
   <si>
-    <t>NOM_CTO</t>
-  </si>
-  <si>
-    <t>AP_PAT_CTO</t>
-  </si>
-  <si>
-    <t>AP_MAT_CTO</t>
-  </si>
-  <si>
-    <t>DIR_CTO</t>
-  </si>
-  <si>
-    <t>RUT_CTO</t>
-  </si>
-  <si>
-    <t>TEL_CTO</t>
-  </si>
-  <si>
-    <t>MAIL_CTO</t>
-  </si>
-  <si>
-    <t>NOM_P</t>
-  </si>
-  <si>
-    <t>AP_PAT_P</t>
-  </si>
-  <si>
-    <t>AP_MAT_P</t>
-  </si>
-  <si>
-    <t>DIR_P</t>
-  </si>
-  <si>
-    <t>RUT_P</t>
-  </si>
-  <si>
-    <t>TEL_P</t>
-  </si>
-  <si>
-    <t>MAIL_P</t>
-  </si>
-  <si>
-    <t>NOM_S</t>
-  </si>
-  <si>
-    <t>AP_PAT_S</t>
-  </si>
-  <si>
-    <t>AP_MAT_S</t>
-  </si>
-  <si>
-    <t>DIR_S</t>
-  </si>
-  <si>
-    <t>RUT_S</t>
-  </si>
-  <si>
-    <t>TEL_S</t>
-  </si>
-  <si>
-    <t>MAIL_S</t>
-  </si>
-  <si>
-    <t>NOM_T</t>
-  </si>
-  <si>
-    <t>AP_PAT_T</t>
-  </si>
-  <si>
-    <t>AP_MAT_T</t>
-  </si>
-  <si>
-    <t>DIR_T</t>
-  </si>
-  <si>
-    <t>RUT_T</t>
-  </si>
-  <si>
-    <t>TEL_T</t>
-  </si>
-  <si>
-    <t>MAIL_T</t>
-  </si>
-  <si>
     <t>SEXO_BENEF</t>
   </si>
   <si>
-    <t>DIR_BENEF</t>
-  </si>
-  <si>
-    <t>NUM_DIR_BENEF</t>
-  </si>
-  <si>
     <t>COD_RESOLUCIÓN</t>
   </si>
   <si>
@@ -1026,18 +909,12 @@
     <t>AFP</t>
   </si>
   <si>
-    <t>ISAPRE_O_FONASA</t>
-  </si>
-  <si>
     <t>CERTIFICADOS</t>
   </si>
   <si>
     <t>COD_CERTIFICADO</t>
   </si>
   <si>
-    <t>CERTIFICADO</t>
-  </si>
-  <si>
     <t>COD_POST</t>
   </si>
   <si>
@@ -1057,6 +934,39 @@
   </si>
   <si>
     <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>COD_EGIS</t>
+  </si>
+  <si>
+    <t>NOMBRE_EGIS</t>
+  </si>
+  <si>
+    <t>RUT_EGIS</t>
+  </si>
+  <si>
+    <t>SALUD</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>COD_BANCO</t>
+  </si>
+  <si>
+    <t>NOMBRE_BANCO</t>
+  </si>
+  <si>
+    <t>NOMBRE_REGION</t>
+  </si>
+  <si>
+    <t>NOMBRE_COMUNA</t>
+  </si>
+  <si>
+    <t>NOMBRE_CIUDAD</t>
+  </si>
+  <si>
+    <t>NOMBRE_DOCUMENTO</t>
   </si>
 </sst>
 </file>
@@ -1703,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6209F4EE-84C5-497C-AEDE-CC128DA7DE5F}">
-  <dimension ref="A1:BC29"/>
+  <dimension ref="A1:AY31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1728,13 +1638,10 @@
     <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.81640625" bestFit="1" customWidth="1"/>
@@ -1766,209 +1673,113 @@
     <col min="54" max="54" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" t="s">
         <v>243</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>244</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>245</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>246</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L4" t="s">
         <v>247</v>
-      </c>
-      <c r="H4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I4" t="s">
-        <v>249</v>
-      </c>
-      <c r="J4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K4" t="s">
-        <v>254</v>
-      </c>
-      <c r="L4" t="s">
-        <v>251</v>
       </c>
       <c r="M4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
         <v>161</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>195</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>196</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>197</v>
       </c>
-      <c r="F6" t="s">
-        <v>253</v>
-      </c>
       <c r="G6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" t="s">
         <v>200</v>
       </c>
-      <c r="H6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" t="s">
-        <v>203</v>
-      </c>
-      <c r="K6" t="s">
-        <v>263</v>
-      </c>
       <c r="L6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M6" t="s">
-        <v>265</v>
-      </c>
-      <c r="N6" t="s">
-        <v>266</v>
-      </c>
-      <c r="O6" t="s">
-        <v>267</v>
-      </c>
-      <c r="P6" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>269</v>
-      </c>
-      <c r="R6" t="s">
-        <v>270</v>
-      </c>
-      <c r="S6" t="s">
-        <v>271</v>
-      </c>
-      <c r="T6" t="s">
-        <v>272</v>
-      </c>
-      <c r="U6" t="s">
-        <v>273</v>
-      </c>
-      <c r="V6" t="s">
-        <v>274</v>
-      </c>
-      <c r="W6" t="s">
-        <v>275</v>
-      </c>
-      <c r="X6" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="AW6" t="s">
         <v>21</v>
@@ -1979,71 +1790,53 @@
       <c r="AY6" t="s">
         <v>24</v>
       </c>
-      <c r="AZ6" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -2052,202 +1845,199 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F12" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="H12" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="I12" t="s">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="L12" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="M12" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="N12" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="O12" t="s">
-        <v>301</v>
+        <v>31</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U12" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="V12" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="W12" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="X12" t="s">
-        <v>304</v>
+        <v>46</v>
       </c>
       <c r="Y12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s">
         <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="G14" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="H14" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="I14" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="J14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:55" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
         <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
         <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H16" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+      <c r="C18" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" t="s">
         <v>231</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G20" t="s">
         <v>232</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
         <v>233</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I20" t="s">
         <v>234</v>
       </c>
-      <c r="F20" t="s">
+      <c r="J20" t="s">
         <v>235</v>
-      </c>
-      <c r="G20" t="s">
-        <v>236</v>
-      </c>
-      <c r="H20" t="s">
-        <v>237</v>
-      </c>
-      <c r="I20" t="s">
-        <v>238</v>
-      </c>
-      <c r="J20" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2256,25 +2046,37 @@
         <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2303,110 +2105,74 @@
         <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>194</v>
       </c>
-      <c r="D3" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
@@ -2416,9 +2182,6 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">

--- a/campos bd_nueva.xlsx
+++ b/campos bd_nueva.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\Programa\godsito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328B40AF-AE77-4FE5-A1A4-DA7CEE78F453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671CF91D-F574-4EED-8D33-9825E8623C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="610" windowWidth="10800" windowHeight="8600" xr2:uid="{6185D204-A7B5-42E5-B6C4-5CA857934285}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{6185D204-A7B5-42E5-B6C4-5CA857934285}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
-    <sheet name="PERSONA" sheetId="3" r:id="rId2"/>
-    <sheet name="BENEFICIARIOS" sheetId="1" r:id="rId3"/>
-    <sheet name="COMITÉ" sheetId="2" r:id="rId4"/>
+    <sheet name="PERSONA" sheetId="3" r:id="rId1"/>
+    <sheet name="BENEFICIARIOS" sheetId="1" r:id="rId2"/>
+    <sheet name="COMITÉ" sheetId="2" r:id="rId3"/>
+    <sheet name="PJ" sheetId="5" r:id="rId4"/>
+    <sheet name="PROYECTO" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,40 +39,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>franc</author>
-  </authors>
-  <commentList>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{06B592A5-93AE-41BF-AE10-F5B1FE7EE416}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>franc:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-QUE ES ESTE?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>franc</author>
@@ -106,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="198">
   <si>
     <t>COD_BENEF</t>
   </si>
@@ -693,27 +660,6 @@
     <t>COD_PERSONA</t>
   </si>
   <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>FECHA_NACIMIENTO</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>TELÉFONO</t>
-  </si>
-  <si>
     <t>datos sociales</t>
   </si>
   <si>
@@ -721,259 +667,13 @@
   </si>
   <si>
     <t>datos persona</t>
-  </si>
-  <si>
-    <t>EGIS</t>
-  </si>
-  <si>
-    <t>CONSTRUCTORA</t>
-  </si>
-  <si>
-    <t>PERSONA</t>
-  </si>
-  <si>
-    <t>TRABAJADOR</t>
-  </si>
-  <si>
-    <t>BENEFICIARIO</t>
-  </si>
-  <si>
-    <t>COMITÉ</t>
-  </si>
-  <si>
-    <t>PERSONA_JURIDICA</t>
-  </si>
-  <si>
-    <t>DOCUMENTOS</t>
-  </si>
-  <si>
-    <t>DECRETOS</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>COD_TRABAJADOR</t>
-  </si>
-  <si>
-    <t>COD_DIRIGENTE</t>
-  </si>
-  <si>
-    <t>COD_BENEFICIARIO</t>
-  </si>
-  <si>
-    <t>COD_COMITÉ</t>
-  </si>
-  <si>
-    <t>COD_DOCUMENTO</t>
-  </si>
-  <si>
-    <t>COD_PJ</t>
-  </si>
-  <si>
-    <t>RUT_PJ</t>
-  </si>
-  <si>
-    <t>SERIE_PJ</t>
-  </si>
-  <si>
-    <t>FECHA_INICIO</t>
-  </si>
-  <si>
-    <t>COMUNA_PJ</t>
-  </si>
-  <si>
-    <t>REGIÓN</t>
-  </si>
-  <si>
-    <t>CIUDAD</t>
-  </si>
-  <si>
-    <t>COD_DECRETO</t>
-  </si>
-  <si>
-    <t>LLAVE_DECRETO</t>
-  </si>
-  <si>
-    <t>NUM_DECRETO</t>
-  </si>
-  <si>
-    <t>AÑO_DECRETO</t>
-  </si>
-  <si>
-    <t>NUM_LLAMADO_DECRETO</t>
-  </si>
-  <si>
-    <t>FECHA_LLAMADO_DECRETO</t>
-  </si>
-  <si>
-    <t>NUM_RESOLUCIÓN_D</t>
-  </si>
-  <si>
-    <t>FECHA_RESOLUCIÓN_DECRETO</t>
-  </si>
-  <si>
-    <t>TIPO_DECRETO</t>
-  </si>
-  <si>
-    <t>COD_REGIÓN</t>
-  </si>
-  <si>
-    <t>COD_COMUNA</t>
-  </si>
-  <si>
-    <t>COD_CIUDAD</t>
-  </si>
-  <si>
-    <t>NOMBRE_CONSTRUCTORA</t>
-  </si>
-  <si>
-    <t>RUT_CONSTRUCTORA</t>
-  </si>
-  <si>
-    <t>TELEFONO_CONSTRUCTORA</t>
-  </si>
-  <si>
-    <t>EMAIL_CONSTRUCTORA</t>
-  </si>
-  <si>
-    <t>RESPONSABLE_CONSTRUCTORA</t>
-  </si>
-  <si>
-    <t>RUT_RESPONSABLE_CONSTRUCTORA</t>
-  </si>
-  <si>
-    <t>PROFESIÓN_RESPONSABLE_CONSTRUCTORA</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN_RESPONSABLE_CONSTRUCTORA</t>
-  </si>
-  <si>
-    <t>COMUNA_CONSTRUCTORA</t>
-  </si>
-  <si>
-    <t>FV_CEDULA</t>
-  </si>
-  <si>
-    <t>TELÉFONO_RESPONSABLE_CONSTRUCTORA</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN_PJ</t>
-  </si>
-  <si>
-    <t>SERIE_VIGENTE</t>
-  </si>
-  <si>
-    <t>FECHA_CONTRATO</t>
-  </si>
-  <si>
-    <t>SUELDO_ACORDADO</t>
-  </si>
-  <si>
-    <t>SEXO_BENEF</t>
-  </si>
-  <si>
-    <t>COD_RESOLUCIÓN</t>
-  </si>
-  <si>
-    <t>COD_CONSTRUCTORA</t>
-  </si>
-  <si>
-    <t>PROPIETARIO_O_ARRENDATARIO</t>
-  </si>
-  <si>
-    <t>ESTADO_CIVIL_BENEF</t>
-  </si>
-  <si>
-    <t>CTA_A_NOMBRE_DE</t>
-  </si>
-  <si>
-    <t>AHORRO_EN_LIBRETA</t>
-  </si>
-  <si>
-    <t>NUM_DE_VIVIENDAS</t>
-  </si>
-  <si>
-    <t>OBSERVACIÓN</t>
-  </si>
-  <si>
-    <t>ESTADO_POSTULACIÓN</t>
-  </si>
-  <si>
-    <t>AHORRO_REQUERIDO</t>
-  </si>
-  <si>
-    <t>NUM_CTA_DE_AHORRO</t>
-  </si>
-  <si>
-    <t>AFP</t>
-  </si>
-  <si>
-    <t>CERTIFICADOS</t>
-  </si>
-  <si>
-    <t>COD_CERTIFICADO</t>
-  </si>
-  <si>
-    <t>COD_POST</t>
-  </si>
-  <si>
-    <t>NOMBRE_COPROPIEDAD</t>
-  </si>
-  <si>
-    <t>NOMBRE_CONJUNTO_HABITACIONAL</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTOS</t>
-  </si>
-  <si>
-    <t>COD_CONJUNTO_HABITACIONAL</t>
-  </si>
-  <si>
-    <t>NOMBRE_TABLA</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
-    <t>COD_EGIS</t>
-  </si>
-  <si>
-    <t>NOMBRE_EGIS</t>
-  </si>
-  <si>
-    <t>RUT_EGIS</t>
-  </si>
-  <si>
-    <t>SALUD</t>
-  </si>
-  <si>
-    <t>Banco</t>
-  </si>
-  <si>
-    <t>COD_BANCO</t>
-  </si>
-  <si>
-    <t>NOMBRE_BANCO</t>
-  </si>
-  <si>
-    <t>NOMBRE_REGION</t>
-  </si>
-  <si>
-    <t>NOMBRE_COMUNA</t>
-  </si>
-  <si>
-    <t>NOMBRE_CIUDAD</t>
-  </si>
-  <si>
-    <t>NOMBRE_DOCUMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,19 +729,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1219,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,8 +983,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1612,483 +1297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6209F4EE-84C5-497C-AEDE-CC128DA7DE5F}">
-  <dimension ref="A1:AY31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:51" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I4" t="s">
-        <v>245</v>
-      </c>
-      <c r="J4" t="s">
-        <v>246</v>
-      </c>
-      <c r="K4" t="s">
-        <v>249</v>
-      </c>
-      <c r="L4" t="s">
-        <v>247</v>
-      </c>
-      <c r="M4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I6" t="s">
-        <v>199</v>
-      </c>
-      <c r="J6" t="s">
-        <v>201</v>
-      </c>
-      <c r="K6" t="s">
-        <v>200</v>
-      </c>
-      <c r="L6" t="s">
-        <v>258</v>
-      </c>
-      <c r="M6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>259</v>
-      </c>
-      <c r="L12" t="s">
-        <v>260</v>
-      </c>
-      <c r="M12" t="s">
-        <v>261</v>
-      </c>
-      <c r="N12" t="s">
-        <v>262</v>
-      </c>
-      <c r="O12" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" t="s">
-        <v>263</v>
-      </c>
-      <c r="V12" t="s">
-        <v>264</v>
-      </c>
-      <c r="W12" t="s">
-        <v>265</v>
-      </c>
-      <c r="X12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>269</v>
-      </c>
-      <c r="E14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" t="s">
-        <v>270</v>
-      </c>
-      <c r="G14" t="s">
-        <v>271</v>
-      </c>
-      <c r="H14" t="s">
-        <v>272</v>
-      </c>
-      <c r="I14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>250</v>
-      </c>
-      <c r="G16" t="s">
-        <v>222</v>
-      </c>
-      <c r="H16" t="s">
-        <v>223</v>
-      </c>
-      <c r="I16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" t="s">
-        <v>230</v>
-      </c>
-      <c r="F20" t="s">
-        <v>231</v>
-      </c>
-      <c r="G20" t="s">
-        <v>232</v>
-      </c>
-      <c r="H20" t="s">
-        <v>233</v>
-      </c>
-      <c r="I20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="B22" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B28" t="s">
-        <v>238</v>
-      </c>
-      <c r="C28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="B30" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8843FBE2-0EA0-45CC-A9E1-8848D351AB29}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2105,13 +1318,13 @@
         <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2289,13 +1502,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7710859A-5A25-462D-AEF6-D98420A3F666}">
   <dimension ref="A1:AX104"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
-    </sheetView>
+    <sheetView zoomScale="98" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4047,12 +3258,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636CF9E3-5343-4162-B353-A0B4411BD5A3}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5022,4 +4233,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402AF3AD-FE96-4028-B419-285D262520D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B9E992-D416-4E0B-AEFD-9AEAD4AE33DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>